--- a/ToDoList.xlsx
+++ b/ToDoList.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="32">
   <si>
     <t xml:space="preserve">Nom: RAMALALAHARISON Tokiniaina</t>
   </si>
@@ -97,49 +97,25 @@
     <t xml:space="preserve">classement général par équipe </t>
   </si>
   <si>
-    <t xml:space="preserve">Client</t>
+    <t xml:space="preserve">Réinitialisation des données</t>
   </si>
   <si>
-    <t xml:space="preserve">Payement devis du client</t>
+    <t xml:space="preserve">Importation étapes</t>
   </si>
   <si>
-    <t xml:space="preserve">Administration</t>
+    <t xml:space="preserve">Importation résultats</t>
   </si>
   <si>
-    <t xml:space="preserve">liste des devis en cours</t>
+    <t xml:space="preserve">Importation points</t>
   </si>
   <si>
-    <t xml:space="preserve">Liste des travaux a effectue </t>
+    <t xml:space="preserve">Ajout coureur / Liste coureur avec temps chrono</t>
   </si>
   <si>
-    <t xml:space="preserve">tableau de bord, Le montant total des devis</t>
+    <t xml:space="preserve"> gestion des catégories</t>
   </si>
   <si>
-    <t xml:space="preserve">Histogramme des montant des devis par mois et année</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pourcentage payement effectué</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tableau de bord, Le montant total de paiement effectué</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRUD type de travaux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRUD finition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validation AJAX lors du paiement </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Importation CSV travaux_maison et devis </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Importation CSV payement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bouton Reinitialisation de la base</t>
+    <t xml:space="preserve">Catégories classement général par équipe </t>
   </si>
 </sst>
 </file>
@@ -244,7 +220,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -271,10 +247,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -364,8 +336,8 @@
   </sheetPr>
   <dimension ref="A1:Z1008"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A31" activeCellId="0" sqref="A31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B53" activeCellId="0" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.22265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -423,10 +395,10 @@
         <v>11</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F9" s="4" t="n">
         <f aca="false">IF(D9-E9&lt;0,0,D9-E9)</f>
@@ -467,10 +439,10 @@
         <v>13</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="F10" s="4" t="n">
         <f aca="false">IF(D10-E10&lt;0,0,D10-E10)</f>
@@ -763,10 +735,10 @@
         <v>11</v>
       </c>
       <c r="D17" s="4" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F17" s="4" t="n">
         <f aca="false">IF(D17-E17&lt;0,0,D17-E17)</f>
@@ -847,10 +819,10 @@
         <v>13</v>
       </c>
       <c r="D19" s="4" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E19" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F19" s="4" t="n">
         <f aca="false">IF(D19-E19&lt;0,0,D19-E19)</f>
@@ -933,10 +905,10 @@
         <v>15</v>
       </c>
       <c r="D21" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E21" s="4" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F21" s="4" t="n">
         <f aca="false">IF(D21-E21&lt;0,0,D21-E21)</f>
@@ -1061,10 +1033,10 @@
         <v>15</v>
       </c>
       <c r="D24" s="4" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E24" s="4" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F24" s="4" t="n">
         <f aca="false">IF(D24-E24&lt;0,0,D24-E24)</f>
@@ -1147,10 +1119,10 @@
         <v>11</v>
       </c>
       <c r="D26" s="4" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E26" s="4" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F26" s="4" t="n">
         <f aca="false">IF(D26-E26&lt;0,0,D26-E26)</f>
@@ -1189,10 +1161,10 @@
         <v>15</v>
       </c>
       <c r="D27" s="4" t="n">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="E27" s="4" t="n">
-        <v>15</v>
+        <v>140</v>
       </c>
       <c r="F27" s="4" t="n">
         <f aca="false">IF(D27-E27&lt;0,0,D27-E27)</f>
@@ -1275,10 +1247,10 @@
         <v>11</v>
       </c>
       <c r="D29" s="4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E29" s="4" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F29" s="4" t="n">
         <f aca="false">IF(D29-E29&lt;0,0,D29-E29)</f>
@@ -1317,10 +1289,10 @@
         <v>15</v>
       </c>
       <c r="D30" s="4" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="E30" s="4" t="n">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="F30" s="4" t="n">
         <f aca="false">IF(D30-E30&lt;0,0,D30-E30)</f>
@@ -1362,7 +1334,7 @@
         <v>15</v>
       </c>
       <c r="E31" s="4" t="n">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="F31" s="4" t="n">
         <f aca="false">IF(D31-E31&lt;0,0,D31-E31)</f>
@@ -1394,19 +1366,19 @@
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D32" s="4" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E32" s="4" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F32" s="4" t="n">
         <f aca="false">IF(D32-E32&lt;0,0,D32-E32)</f>
@@ -1438,17 +1410,17 @@
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D33" s="4" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E33" s="4" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F33" s="4" t="n">
         <f aca="false">IF(D33-E33&lt;0,0,D33-E33)</f>
@@ -1480,17 +1452,17 @@
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D34" s="4" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E34" s="4" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F34" s="4" t="n">
         <f aca="false">IF(D34-E34&lt;0,0,D34-E34)</f>
@@ -1522,19 +1494,19 @@
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D35" s="4" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E35" s="4" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F35" s="4" t="n">
         <f aca="false">IF(D35-E35&lt;0,0,D35-E35)</f>
@@ -1566,17 +1538,17 @@
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D36" s="4" t="n">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="E36" s="4" t="n">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="F36" s="4" t="n">
         <f aca="false">IF(D36-E36&lt;0,0,D36-E36)</f>
@@ -1608,17 +1580,17 @@
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D37" s="4" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E37" s="4" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F37" s="4" t="n">
         <f aca="false">IF(D37-E37&lt;0,0,D37-E37)</f>
@@ -1650,19 +1622,19 @@
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D38" s="4" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E38" s="4" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F38" s="4" t="n">
         <f aca="false">IF(D38-E38&lt;0,0,D38-E38)</f>
@@ -1694,17 +1666,17 @@
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D39" s="4" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F39" s="4" t="n">
         <f aca="false">IF(D39-E39&lt;0,0,D39-E39)</f>
@@ -1736,17 +1708,17 @@
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D40" s="4" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E40" s="4" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F40" s="4" t="n">
         <f aca="false">IF(D40-E40&lt;0,0,D40-E40)</f>
@@ -1778,19 +1750,19 @@
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D41" s="4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E41" s="4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F41" s="4" t="n">
         <f aca="false">IF(D41-E41&lt;0,0,D41-E41)</f>
@@ -1822,17 +1794,17 @@
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D42" s="4" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E42" s="4" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F42" s="4" t="n">
         <f aca="false">IF(D42-E42&lt;0,0,D42-E42)</f>
@@ -1864,7 +1836,7 @@
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="4" t="s">
@@ -1906,10 +1878,10 @@
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>11</v>
@@ -1918,7 +1890,7 @@
         <v>15</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F44" s="4" t="n">
         <f aca="false">IF(D44-E44&lt;0,0,D44-E44)</f>
@@ -1950,17 +1922,17 @@
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D45" s="4" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E45" s="4" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F45" s="4" t="n">
         <f aca="false">IF(D45-E45&lt;0,0,D45-E45)</f>
@@ -1992,17 +1964,17 @@
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D46" s="4" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E46" s="4" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F46" s="4" t="n">
         <f aca="false">IF(D46-E46&lt;0,0,D46-E46)</f>
@@ -2033,13 +2005,29 @@
       <c r="Z46" s="6"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="5"/>
+      <c r="A47" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="E47" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="F47" s="4" t="n">
+        <f aca="false">IF(D47-E47&lt;0,0,D47-E47)</f>
+        <v>0</v>
+      </c>
+      <c r="G47" s="5" t="n">
+        <f aca="false">(E47/(E47+F47))</f>
+        <v>1</v>
+      </c>
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
@@ -2062,19 +2050,17 @@
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>32</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B48" s="4"/>
       <c r="C48" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D48" s="4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E48" s="4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F48" s="4" t="n">
         <f aca="false">IF(D48-E48&lt;0,0,D48-E48)</f>
@@ -2106,7 +2092,7 @@
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="4" t="s">
@@ -2148,17 +2134,19 @@
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B50" s="4"/>
+        <v>22</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="C50" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="D50" s="4" t="n">
-        <v>10</v>
-      </c>
       <c r="E50" s="4" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F50" s="4" t="n">
         <f aca="false">IF(D50-E50&lt;0,0,D50-E50)</f>
@@ -2190,19 +2178,17 @@
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>33</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B51" s="7"/>
       <c r="C51" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D51" s="4" t="n">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="E51" s="4" t="n">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="F51" s="4" t="n">
         <f aca="false">IF(D51-E51&lt;0,0,D51-E51)</f>
@@ -2234,17 +2220,17 @@
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B52" s="8"/>
+        <v>22</v>
+      </c>
+      <c r="B52" s="7"/>
       <c r="C52" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D52" s="4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E52" s="4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F52" s="4" t="n">
         <f aca="false">IF(D52-E52&lt;0,0,D52-E52)</f>
@@ -2275,27 +2261,13 @@
       <c r="Z52" s="6"/>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B53" s="8"/>
-      <c r="C53" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D53" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="E53" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="F53" s="4" t="n">
-        <f aca="false">IF(D53-E53&lt;0,0,D53-E53)</f>
-        <v>0</v>
-      </c>
-      <c r="G53" s="5" t="n">
-        <f aca="false">(E53/(E53+F53))</f>
-        <v>1</v>
-      </c>
+      <c r="A53" s="4"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="5"/>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
@@ -2317,29 +2289,13 @@
       <c r="Z53" s="6"/>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D54" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="E54" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="F54" s="4" t="n">
-        <f aca="false">IF(D54-E54&lt;0,0,D54-E54)</f>
-        <v>0</v>
-      </c>
-      <c r="G54" s="5" t="n">
-        <f aca="false">(E54/(E54+F54))</f>
-        <v>1</v>
-      </c>
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="5"/>
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
@@ -2361,27 +2317,13 @@
       <c r="Z54" s="6"/>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="A55" s="4"/>
       <c r="B55" s="4"/>
-      <c r="C55" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D55" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="E55" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="F55" s="4" t="n">
-        <f aca="false">IF(D55-E55&lt;0,0,D55-E55)</f>
-        <v>0</v>
-      </c>
-      <c r="G55" s="5" t="n">
-        <f aca="false">(E55/(E55+F55))</f>
-        <v>1</v>
-      </c>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="5"/>
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
@@ -2403,27 +2345,13 @@
       <c r="Z55" s="6"/>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="A56" s="4"/>
       <c r="B56" s="4"/>
-      <c r="C56" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D56" s="4" t="n">
-        <v>15</v>
-      </c>
-      <c r="E56" s="4" t="n">
-        <v>15</v>
-      </c>
-      <c r="F56" s="4" t="n">
-        <f aca="false">IF(D56-E56&lt;0,0,D56-E56)</f>
-        <v>0</v>
-      </c>
-      <c r="G56" s="5" t="n">
-        <f aca="false">(E56/(E56+F56))</f>
-        <v>1</v>
-      </c>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="5"/>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
       <c r="J56" s="6"/>
@@ -2445,29 +2373,13 @@
       <c r="Z56" s="6"/>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D57" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="E57" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="F57" s="4" t="n">
-        <f aca="false">IF(D57-E57&lt;0,0,D57-E57)</f>
-        <v>0</v>
-      </c>
-      <c r="G57" s="5" t="n">
-        <f aca="false">(E57/(E57+F57))</f>
-        <v>1</v>
-      </c>
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="5"/>
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
@@ -2489,27 +2401,13 @@
       <c r="Z57" s="6"/>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="A58" s="4"/>
       <c r="B58" s="4"/>
-      <c r="C58" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D58" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="E58" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="F58" s="4" t="n">
-        <f aca="false">IF(D58-E58&lt;0,0,D58-E58)</f>
-        <v>0</v>
-      </c>
-      <c r="G58" s="5" t="n">
-        <f aca="false">(E58/(E58+F58))</f>
-        <v>1</v>
-      </c>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="5"/>
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
       <c r="J58" s="6"/>
@@ -2531,27 +2429,13 @@
       <c r="Z58" s="6"/>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="A59" s="4"/>
       <c r="B59" s="4"/>
-      <c r="C59" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D59" s="4" t="n">
-        <v>12</v>
-      </c>
-      <c r="E59" s="4" t="n">
-        <v>12</v>
-      </c>
-      <c r="F59" s="4" t="n">
-        <f aca="false">IF(D59-E59&lt;0,0,D59-E59)</f>
-        <v>0</v>
-      </c>
-      <c r="G59" s="5" t="n">
-        <f aca="false">(E59/(E59+F59))</f>
-        <v>1</v>
-      </c>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="5"/>
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
@@ -2574,26 +2458,12 @@
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="4"/>
-      <c r="B60" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D60" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="E60" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="F60" s="4" t="n">
-        <f aca="false">IF(D60-E60&lt;0,0,D60-E60)</f>
-        <v>0</v>
-      </c>
-      <c r="G60" s="5" t="n">
-        <f aca="false">(E60/(E60+F60))</f>
-        <v>1</v>
-      </c>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="5"/>
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
@@ -2617,23 +2487,11 @@
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
-      <c r="C61" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D61" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="E61" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="F61" s="4" t="n">
-        <f aca="false">IF(D61-E61&lt;0,0,D61-E61)</f>
-        <v>0</v>
-      </c>
-      <c r="G61" s="5" t="n">
-        <f aca="false">(E61/(E61+F61))</f>
-        <v>1</v>
-      </c>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="5"/>
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
@@ -2657,23 +2515,11 @@
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
-      <c r="C62" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D62" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="E62" s="4" t="n">
-        <v>15</v>
-      </c>
-      <c r="F62" s="4" t="n">
-        <f aca="false">IF(D62-E62&lt;0,0,D62-E62)</f>
-        <v>0</v>
-      </c>
-      <c r="G62" s="5" t="n">
-        <f aca="false">(E62/(E62+F62))</f>
-        <v>1</v>
-      </c>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="5"/>
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
       <c r="J62" s="6"/>
@@ -2696,26 +2542,12 @@
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="4"/>
-      <c r="B63" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D63" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="E63" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="F63" s="4" t="n">
-        <f aca="false">IF(D63-E63&lt;0,0,D63-E63)</f>
-        <v>0</v>
-      </c>
-      <c r="G63" s="5" t="n">
-        <f aca="false">(E63/(E63+F63))</f>
-        <v>1</v>
-      </c>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="5"/>
       <c r="H63" s="6"/>
       <c r="I63" s="6"/>
       <c r="J63" s="6"/>
@@ -2739,23 +2571,11 @@
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
-      <c r="C64" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D64" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="E64" s="4" t="n">
-        <v>15</v>
-      </c>
-      <c r="F64" s="4" t="n">
-        <f aca="false">IF(D64-E64&lt;0,0,D64-E64)</f>
-        <v>0</v>
-      </c>
-      <c r="G64" s="5" t="n">
-        <f aca="false">(E64/(E64+F64))</f>
-        <v>1</v>
-      </c>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="5"/>
       <c r="H64" s="6"/>
       <c r="I64" s="6"/>
       <c r="J64" s="6"/>
@@ -2779,23 +2599,11 @@
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
-      <c r="C65" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D65" s="4" t="n">
-        <v>120</v>
-      </c>
-      <c r="E65" s="4" t="n">
-        <v>120</v>
-      </c>
-      <c r="F65" s="4" t="n">
-        <f aca="false">IF(D65-E65&lt;0,0,D65-E65)</f>
-        <v>0</v>
-      </c>
-      <c r="G65" s="5" t="n">
-        <f aca="false">(E65/(E65+F65))</f>
-        <v>1</v>
-      </c>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="5"/>
       <c r="H65" s="6"/>
       <c r="I65" s="6"/>
       <c r="J65" s="6"/>
@@ -2818,26 +2626,12 @@
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="4"/>
-      <c r="B66" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D66" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="E66" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F66" s="4" t="n">
-        <f aca="false">IF(D66-E66&lt;0,0,D66-E66)</f>
-        <v>9</v>
-      </c>
-      <c r="G66" s="5" t="n">
-        <f aca="false">(E66/(E66+F66))</f>
-        <v>0.1</v>
-      </c>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="5"/>
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
       <c r="J66" s="6"/>
@@ -2861,23 +2655,11 @@
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
-      <c r="C67" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D67" s="4" t="n">
-        <v>15</v>
-      </c>
-      <c r="E67" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F67" s="4" t="n">
-        <f aca="false">IF(D67-E67&lt;0,0,D67-E67)</f>
-        <v>15</v>
-      </c>
-      <c r="G67" s="5" t="n">
-        <f aca="false">(E67/(E67+F67))</f>
-        <v>0</v>
-      </c>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="5"/>
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
       <c r="J67" s="6"/>
@@ -2901,23 +2683,11 @@
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
-      <c r="C68" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D68" s="4" t="n">
-        <v>120</v>
-      </c>
-      <c r="E68" s="4" t="n">
-        <v>60</v>
-      </c>
-      <c r="F68" s="4" t="n">
-        <f aca="false">IF(D68-E68&lt;0,0,D68-E68)</f>
-        <v>60</v>
-      </c>
-      <c r="G68" s="5" t="n">
-        <f aca="false">(E68/(E68+F68))</f>
-        <v>0.5</v>
-      </c>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="5"/>
       <c r="H68" s="6"/>
       <c r="I68" s="6"/>
       <c r="J68" s="6"/>
@@ -2940,26 +2710,12 @@
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="4"/>
-      <c r="B69" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D69" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="E69" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="F69" s="4" t="n">
-        <f aca="false">IF(D69-E69&lt;0,0,D69-E69)</f>
-        <v>0</v>
-      </c>
-      <c r="G69" s="5" t="n">
-        <f aca="false">(E69/(E69+F69))</f>
-        <v>1</v>
-      </c>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="5"/>
       <c r="H69" s="6"/>
       <c r="I69" s="6"/>
       <c r="J69" s="6"/>
@@ -2983,23 +2739,11 @@
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
-      <c r="C70" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D70" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="E70" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="F70" s="4" t="n">
-        <f aca="false">IF(D70-E70&lt;0,0,D70-E70)</f>
-        <v>0</v>
-      </c>
-      <c r="G70" s="5" t="n">
-        <f aca="false">(E70/(E70+F70))</f>
-        <v>1</v>
-      </c>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="5"/>
       <c r="H70" s="6"/>
       <c r="I70" s="6"/>
       <c r="J70" s="6"/>
@@ -3023,23 +2767,11 @@
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
-      <c r="C71" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D71" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="E71" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="F71" s="4" t="n">
-        <f aca="false">IF(D71-E71&lt;0,0,D71-E71)</f>
-        <v>0</v>
-      </c>
-      <c r="G71" s="5" t="n">
-        <f aca="false">(E71/(E71+F71))</f>
-        <v>1</v>
-      </c>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="5"/>
       <c r="H71" s="6"/>
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
@@ -3066,16 +2798,16 @@
       <c r="C72" s="4"/>
       <c r="D72" s="4" t="n">
         <f aca="false">SUM(D9:D71)</f>
-        <v>1028</v>
+        <v>1070</v>
       </c>
       <c r="E72" s="4" t="n">
         <f aca="false">SUM(E9:E71)</f>
-        <v>1135</v>
+        <v>1110</v>
       </c>
       <c r="F72" s="4"/>
-      <c r="G72" s="9" t="n">
+      <c r="G72" s="8" t="n">
         <f aca="false">AVERAGE(G$9:G$71)</f>
-        <v>0.961290322580645</v>
+        <v>1</v>
       </c>
       <c r="J72" s="6"/>
       <c r="K72" s="6"/>
